--- a/excel_files/17.6.1.xlsx
+++ b/excel_files/17.6.1.xlsx
@@ -84,9 +84,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -212,16 +211,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,11 +505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,7 +517,7 @@
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -531,7 +528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -544,8 +541,9 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +580,11 @@
       <c r="L3" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -593,35 +594,38 @@
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
         <v>22233</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="18">
         <v>77877</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="18">
         <v>105680</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="18">
         <v>46408</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>27317</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>27428</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>12521</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <v>20556</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <v>8075</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="16">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -631,35 +635,38 @@
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="18">
         <v>6530</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="18">
         <v>43943</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="18">
         <v>65345</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="18">
         <v>59377</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>91834</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>101786</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>73099</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>174988</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="16">
         <v>79553</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="16">
+        <v>81079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -669,35 +676,38 @@
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <v>19351</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="19">
         <v>14065</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="19">
         <v>14032</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="19">
         <v>105739</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>115047</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <v>128799</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>69662</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="17">
         <v>73547</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <v>181555</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="17">
+        <v>214139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -715,7 +725,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -727,7 +737,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -739,7 +749,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -751,7 +761,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -763,7 +773,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -775,7 +785,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -787,7 +797,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -799,7 +809,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -811,7 +821,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>

--- a/excel_files/17.6.1.xlsx
+++ b/excel_files/17.6.1.xlsx
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -505,9 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -517,7 +519,7 @@
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -528,7 +530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -542,8 +544,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +586,11 @@
       <c r="M3" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -624,8 +630,11 @@
       <c r="M4" s="16">
         <v>7105</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="16">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -665,8 +674,11 @@
       <c r="M5" s="16">
         <v>81079</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="16">
+        <v>82675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -706,8 +718,11 @@
       <c r="M6" s="17">
         <v>214139</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="17">
+        <v>300853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -725,7 +740,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -737,7 +752,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -749,7 +764,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -761,7 +776,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -773,7 +788,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -785,7 +800,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -797,7 +812,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -809,7 +824,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -821,7 +836,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>

--- a/excel_files/17.6.1.xlsx
+++ b/excel_files/17.6.1.xlsx
@@ -53,15 +53,6 @@
     <t>Subscriber connections with speeds equal to and more than 10 Mbit/s</t>
   </si>
   <si>
-    <t>*КР МТБМК маалыматтары  боюнча</t>
-  </si>
-  <si>
-    <t>*по данным ГКИТС КР</t>
-  </si>
-  <si>
-    <t>*according to the SCITC KR</t>
-  </si>
-  <si>
     <t>256 кбит/2 Мбит/с кем эмес ага чейинки ылдамдыгы менен  абоненттик туташуулар</t>
   </si>
   <si>
@@ -78,6 +69,15 @@
   </si>
   <si>
     <t>17.6.1 Fixed Internet broadband subscriptions by speed*</t>
+  </si>
+  <si>
+    <t>*Кыргыз Республикасынын санариптик өнүктүрүү министрлигине караштуу байланыш тармагында жөнгө салуу жана көзөмөлдөө кызматынын маалыматтары боюнча</t>
+  </si>
+  <si>
+    <t>* По данным Службы по регулированию и надзору в отрасли связи при Министерстве цифрового развития Кыргызской Республики.</t>
+  </si>
+  <si>
+    <t>*according to the Service for the Regulation and Supervision of the Communications Sector under the Ministry of Digital Development of the Kyrgyz Republic</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,9 +195,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,9 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -521,13 +516,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -546,7 +541,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,43 +551,43 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>2012</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>2013</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>2014</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>2015</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>2016</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>2017</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>2018</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>2019</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>2020</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>2021</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -600,43 +595,43 @@
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>22233</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>77877</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>105680</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>46408</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>27317</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>27428</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>12521</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>20556</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>8075</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>7105</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>6333</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -644,43 +639,43 @@
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>6530</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>43943</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>65345</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>59377</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>91834</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>101786</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>73099</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>174988</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>79553</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>81079</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>82675</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
@@ -688,49 +683,49 @@
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>19351</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>14065</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>14032</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>105739</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>115047</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>128799</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>69662</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>73547</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>181555</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>214139</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <v>300853</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
+    <row r="7" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -738,7 +733,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>

--- a/excel_files/17.6.1.xlsx
+++ b/excel_files/17.6.1.xlsx
@@ -77,7 +77,7 @@
     <t>* По данным Службы по регулированию и надзору в отрасли связи при Министерстве цифрового развития Кыргызской Республики.</t>
   </si>
   <si>
-    <t>*according to the Service for the Regulation and Supervision of the Communications Sector under the Ministry of Digital Development of the Kyrgyz Republic</t>
+    <t>*According to the Service for the Regulation and Supervision of the Communications Sector under the Ministry of Digital Development of the Kyrgyz Republic</t>
   </si>
 </sst>
 </file>
@@ -85,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +173,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,7 +212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -218,6 +225,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +527,7 @@
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -525,7 +538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -540,8 +553,9 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +598,11 @@
       <c r="N3" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -628,8 +645,11 @@
       <c r="N4" s="15">
         <v>6333</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="15">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -672,8 +692,11 @@
       <c r="N5" s="15">
         <v>82675</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="15">
+        <v>74710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -716,15 +739,18 @@
       <c r="N6" s="16">
         <v>300853</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="48" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="O6" s="16">
+        <v>375715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="5"/>
@@ -735,7 +761,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -747,7 +773,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -759,7 +785,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -771,7 +797,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -783,7 +809,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -795,7 +821,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -807,7 +833,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -819,7 +845,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -831,7 +857,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
